--- a/apps/es/resources/screen/ES003.xlsx
+++ b/apps/es/resources/screen/ES003.xlsx
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>es.views.es003_views.ES003</t>
+          <t>es.views.es003.ES003</t>
         </is>
       </c>
       <c r="D10" s="8" t="n"/>
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="C14" s="11" t="n">
-        <v>20250214135416</v>
+        <v>20250806090000</v>
       </c>
       <c r="D14" s="8" t="inlineStr">
         <is>
@@ -1684,6 +1684,7 @@
       <c r="T25" s="11" t="n"/>
     </row>
     <row r="26">
+      <c r="B26" s="1" t="n"/>
       <c r="C26" s="11" t="inlineStr">
         <is>
           <t>actionBar</t>
@@ -1892,6 +1893,7 @@
       <c r="P32" s="11" t="n"/>
     </row>
     <row r="33">
+      <c r="B33" s="1" t="n"/>
       <c r="C33" s="11" t="n"/>
       <c r="D33" s="11" t="n"/>
       <c r="E33" s="11" t="inlineStr">
@@ -1920,6 +1922,7 @@
       <c r="P33" s="11" t="n"/>
     </row>
     <row r="34">
+      <c r="B34" s="1" t="n"/>
       <c r="C34" s="11" t="inlineStr">
         <is>
           <t>actionBar</t>
